--- a/bots/crawl_ch/output/electronics_2022-09-02.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-09-02.xlsx
@@ -531,24 +531,24 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>6670192</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>Philips Wasserkocher HD9318/01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -558,12 +558,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>44.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -572,51 +572,49 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 25% Aktion 44.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
+          <t>Philips Wasserkocher HD9318/01 50% Aktion 24.95 Schweizer Franken statt 49.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6007534</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>44.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -625,88 +623,70 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 25% Aktion 44.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -779,29 +759,29 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -815,12 +795,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -830,7 +810,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -840,46 +820,44 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -888,12 +866,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -903,7 +881,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -913,17 +891,17 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -974,75 +952,97 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6670192</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>24.95</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01 50% Aktion 24.95 Schweizer Franken statt 49.90 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>7016089</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>Tefal Bügeleisen FV4961S0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1052,12 +1052,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1066,141 +1066,141 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>Tefal Bügeleisen FV4961S0 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7016089</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1.66/1ST</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-02 07:08:30</t>
+          <t>2022-09-02 21:00:48</t>
         </is>
       </c>
     </row>
